--- a/Significant_SNPs_farmCPU.xlsx
+++ b/Significant_SNPs_farmCPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1931b30e1dc6d6c/Desktop/annotation for five traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1931b30e1dc6d6c/Desktop/SigSNPs_Genes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104847911845565BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A1AB532-1376-4178-A032-4191A57F3353}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC104847911845565BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB32956-E288-4A8F-AC87-7C720EBF3DE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,10 +340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,11 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -686,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -718,7 +713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -750,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -782,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -814,7 +809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -846,7 +841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -878,7 +873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -910,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -942,7 +937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -974,7 +969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1038,7 +1033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1102,7 +1097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -1134,7 +1129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1166,7 +1161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -1198,7 +1193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>8</v>
       </c>
@@ -1294,7 +1289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>9</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>10</v>
       </c>
@@ -1358,7 +1353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>11</v>
       </c>
@@ -1390,7 +1385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>12</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>13</v>
       </c>
@@ -1912,7 +1907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1944,7 +1939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -1976,7 +1971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>12</v>
       </c>
@@ -2008,7 +2003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2040,7 +2035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -2104,7 +2099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -2136,7 +2131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -2168,7 +2163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>8</v>
       </c>
@@ -2200,7 +2195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>13</v>
       </c>
@@ -2232,7 +2227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -2360,7 +2355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>12</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>4</v>
       </c>
@@ -2424,7 +2419,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10</v>
       </c>
@@ -2456,7 +2451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>11</v>
       </c>
@@ -2488,7 +2483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>6</v>
       </c>
@@ -2520,7 +2515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>8</v>
       </c>
@@ -2552,7 +2547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>5</v>
       </c>
@@ -2584,7 +2579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>7</v>
       </c>
@@ -2616,7 +2611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -2648,7 +2643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -2680,7 +2675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>9</v>
       </c>
@@ -2713,13 +2708,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Kernel Weight"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:J40">
     <sortCondition ref="I1:I65"/>
   </sortState>
